--- a/k-dic-core/src/test/resources/k-dic/k-dic-sensitive.xlsx
+++ b/k-dic-core/src/test/resources/k-dic/k-dic-sensitive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijian/workspace_gitee/k-dic/k-dic-core/src/test/resources/k-dic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34026C-10FD-FC49-B7A5-C631DB65F640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4DBD0-1322-4246-B2CB-43F0CA468499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高-HIGH" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
-  <si>
-    <t>主词</t>
-  </si>
-  <si>
-    <t>辅助词</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,35 +112,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>大同府,阎王寨</t>
+  </si>
+  <si>
     <t>河北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>廊坊,张家口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>乌鲁木齐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>呼和浩特</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>山西</t>
-  </si>
-  <si>
-    <t>大同府,阎王寨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -167,11 +165,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -216,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,9 +223,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -566,22 +556,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -589,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -606,69 +596,69 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -682,42 +672,43 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -730,45 +721,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE0F59-2A61-C546-B9BC-FA9292AD936D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>29</v>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
